--- a/Documentation/tools_BOM.xlsx
+++ b/Documentation/tools_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>Column10</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>Programmer</t>
-  </si>
-  <si>
     <t>Protoboard</t>
   </si>
   <si>
@@ -96,18 +93,6 @@
     <t>https://www.sparkfun.com/products/115</t>
   </si>
   <si>
-    <t>PRT-08619</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8619?</t>
-  </si>
-  <si>
-    <t>BOB-00718</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/718</t>
-  </si>
-  <si>
     <t>Header</t>
   </si>
   <si>
@@ -145,6 +130,84 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/8230</t>
+  </si>
+  <si>
+    <t>Programmer/Uno</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>DEV-11021</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/11021</t>
+  </si>
+  <si>
+    <t>Bus Pirate</t>
+  </si>
+  <si>
+    <t>TOL-09544</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9544</t>
+  </si>
+  <si>
+    <t>DEV-07914</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/7914?</t>
+  </si>
+  <si>
+    <t>Bus Pirate Cable</t>
+  </si>
+  <si>
+    <t>CAB-09556</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9556</t>
+  </si>
+  <si>
+    <t>Hook-up Wire</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>PRT-08022</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8022</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>PRT-08026</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8026</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>PRT-08025</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8025</t>
+  </si>
+  <si>
+    <t>25'</t>
+  </si>
+  <si>
+    <t>Solder</t>
+  </si>
+  <si>
+    <t>TOL-09161</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9161</t>
   </si>
 </sst>
 </file>
@@ -263,6 +326,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K19" totalsRowShown="0">
   <autoFilter ref="A1:K19"/>
+  <sortState ref="A2:K19">
+    <sortCondition ref="A2:A19"/>
+    <sortCondition ref="F2:F19"/>
+    <sortCondition ref="K2:K19"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="Part"/>
     <tableColumn id="15" name="Description"/>
@@ -573,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,144 +712,144 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1">
-        <v>14.95</v>
+        <v>21</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.5</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>14.95</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1">
-        <v>9.9499999999999993</v>
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>29.95</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>9.9499999999999993</v>
+        <v>29.95</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1.5</v>
+        <v>49</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.95</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.5</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.5</v>
+        <v>31</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.95</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5">
         <v>0.45</v>
@@ -796,182 +864,247 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I7" s="5">
-        <v>0.45</v>
+        <v>2.5</v>
       </c>
       <c r="J7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I8" s="5">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
       <c r="K8" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="I9" s="5">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="1">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.45</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3">
+        <v>40</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5">
-        <v>0</v>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.5</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="1">
+        <v>29.95</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>29.95</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5">
-        <v>0</v>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9.9499999999999993</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I14" s="5">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1059,7 +1192,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="7">
         <f>SUM(Table3[Total])</f>
-        <v>31.199999999999996</v>
+        <v>95.000000000000014</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1225,21 +1358,26 @@
     <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="G5" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="G8" r:id="rId5"/>
-    <hyperlink ref="G2" r:id="rId6"/>
-    <hyperlink ref="H7" r:id="rId7"/>
-    <hyperlink ref="G7" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="H6" r:id="rId10"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G11" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="H10" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G6" r:id="rId7"/>
+    <hyperlink ref="H6" r:id="rId8"/>
+    <hyperlink ref="G12" r:id="rId9"/>
+    <hyperlink ref="G3" r:id="rId10"/>
+    <hyperlink ref="G13" r:id="rId11"/>
+    <hyperlink ref="G4" r:id="rId12"/>
+    <hyperlink ref="G7" r:id="rId13"/>
+    <hyperlink ref="G9" r:id="rId14"/>
+    <hyperlink ref="G14" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/tools_BOM.xlsx
+++ b/Documentation/tools_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6240" windowWidth="25230" windowHeight="6300"/>
+    <workbookView xWindow="-15" yWindow="8325" windowWidth="25230" windowHeight="4215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Column10</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Header</t>
   </si>
   <si>
-    <t>Molex</t>
-  </si>
-  <si>
     <t>row</t>
   </si>
   <si>
@@ -117,21 +114,6 @@
     <t>5 pin polar</t>
   </si>
   <si>
-    <t>PRT-08098</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8098</t>
-  </si>
-  <si>
-    <t>22-23-2051</t>
-  </si>
-  <si>
-    <t>PRT-08230</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8230</t>
-  </si>
-  <si>
     <t>Programmer/Uno</t>
   </si>
   <si>
@@ -208,6 +190,24 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/9161</t>
+  </si>
+  <si>
+    <t>Molex Inc</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>WM4203-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673</t>
+  </si>
+  <si>
+    <t>WM2014-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +715,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3">
         <v>40</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -754,10 +754,10 @@
         <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I3" s="5">
         <v>29.95</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -780,10 +780,10 @@
         <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1">
         <v>4.95</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C5" s="3">
         <v>20</v>
@@ -812,10 +812,10 @@
         <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="I5" s="5">
         <v>1.95</v>
@@ -833,23 +833,23 @@
         <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
+      <c r="D6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="4">
+        <v>22232051</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="I6" s="5">
         <v>0.45</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -878,10 +878,10 @@
         <v>19</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I7" s="5">
         <v>2.5</v>
@@ -896,13 +896,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -910,10 +910,10 @@
         <v>19</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I8" s="5">
         <v>2.5</v>
@@ -928,13 +928,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -942,10 +942,10 @@
         <v>19</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I9" s="5">
         <v>2.95</v>
@@ -963,31 +963,33 @@
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" t="s">
-        <v>19</v>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="4">
+        <v>22012057</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I10" s="5">
-        <v>0.45</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J10" s="3">
         <v>2</v>
       </c>
       <c r="K10" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.9</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -995,7 +997,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3">
         <v>40</v>
@@ -1024,10 +1026,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -1036,10 +1038,10 @@
         <v>19</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1">
         <v>29.95</v>
@@ -1064,10 +1066,10 @@
         <v>19</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1">
         <v>9.9499999999999993</v>
@@ -1082,7 +1084,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -1091,10 +1093,10 @@
         <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I14" s="5">
         <v>5.95</v>
@@ -1192,7 +1194,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="7">
         <f>SUM(Table3[Total])</f>
-        <v>95.000000000000014</v>
+        <v>94.68</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1362,22 +1364,25 @@
     <hyperlink ref="G11" r:id="rId2"/>
     <hyperlink ref="H5" r:id="rId3"/>
     <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="H10" r:id="rId5"/>
-    <hyperlink ref="G10" r:id="rId6"/>
-    <hyperlink ref="G6" r:id="rId7"/>
-    <hyperlink ref="H6" r:id="rId8"/>
-    <hyperlink ref="G12" r:id="rId9"/>
-    <hyperlink ref="G3" r:id="rId10"/>
-    <hyperlink ref="G13" r:id="rId11"/>
-    <hyperlink ref="G4" r:id="rId12"/>
-    <hyperlink ref="G7" r:id="rId13"/>
-    <hyperlink ref="G9" r:id="rId14"/>
-    <hyperlink ref="G14" r:id="rId15"/>
+    <hyperlink ref="G12" r:id="rId5"/>
+    <hyperlink ref="G3" r:id="rId6"/>
+    <hyperlink ref="G13" r:id="rId7"/>
+    <hyperlink ref="G4" r:id="rId8"/>
+    <hyperlink ref="G7" r:id="rId9"/>
+    <hyperlink ref="G9" r:id="rId10"/>
+    <hyperlink ref="G14" r:id="rId11"/>
+    <hyperlink ref="D6" r:id="rId12" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E6" r:id="rId13" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="G6" r:id="rId14" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="H6" r:id="rId15"/>
+    <hyperlink ref="D10" r:id="rId16" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="E10" r:id="rId18" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/tools_BOM.xlsx
+++ b/Documentation/tools_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="8325" windowWidth="25230" windowHeight="4215"/>
+    <workbookView xWindow="-15" yWindow="6240" windowWidth="25230" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>Column10</t>
   </si>
@@ -96,6 +96,9 @@
     <t>Header</t>
   </si>
   <si>
+    <t>Molex</t>
+  </si>
+  <si>
     <t>row</t>
   </si>
   <si>
@@ -114,6 +117,21 @@
     <t>5 pin polar</t>
   </si>
   <si>
+    <t>PRT-08098</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8098</t>
+  </si>
+  <si>
+    <t>22-23-2051</t>
+  </si>
+  <si>
+    <t>PRT-08230</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8230</t>
+  </si>
+  <si>
     <t>Programmer/Uno</t>
   </si>
   <si>
@@ -190,24 +208,6 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/9161</t>
-  </si>
-  <si>
-    <t>Molex Inc</t>
-  </si>
-  <si>
-    <t>Digikey</t>
-  </si>
-  <si>
-    <t>WM4203-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673</t>
-  </si>
-  <si>
-    <t>WM2014-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +715,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3">
         <v>40</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -754,10 +754,10 @@
         <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I3" s="5">
         <v>29.95</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -780,10 +780,10 @@
         <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1">
         <v>4.95</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3">
         <v>20</v>
@@ -812,10 +812,10 @@
         <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="5">
         <v>1.95</v>
@@ -833,23 +833,23 @@
         <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="4">
-        <v>22232051</v>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5">
         <v>0.45</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -878,10 +878,10 @@
         <v>19</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I7" s="5">
         <v>2.5</v>
@@ -896,13 +896,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -910,10 +910,10 @@
         <v>19</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I8" s="5">
         <v>2.5</v>
@@ -928,13 +928,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -942,10 +942,10 @@
         <v>19</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I9" s="5">
         <v>2.95</v>
@@ -963,33 +963,31 @@
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="4">
-        <v>22012057</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>59</v>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" t="s">
+        <v>19</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I10" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J10" s="3">
         <v>2</v>
       </c>
       <c r="K10" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.57999999999999996</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -997,7 +995,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3">
         <v>40</v>
@@ -1026,10 +1024,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -1038,10 +1036,10 @@
         <v>19</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1">
         <v>29.95</v>
@@ -1066,10 +1064,10 @@
         <v>19</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1">
         <v>9.9499999999999993</v>
@@ -1084,7 +1082,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -1093,10 +1091,10 @@
         <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I14" s="5">
         <v>5.95</v>
@@ -1194,7 +1192,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="7">
         <f>SUM(Table3[Total])</f>
-        <v>94.68</v>
+        <v>95.000000000000014</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1364,25 +1362,22 @@
     <hyperlink ref="G11" r:id="rId2"/>
     <hyperlink ref="H5" r:id="rId3"/>
     <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G12" r:id="rId5"/>
-    <hyperlink ref="G3" r:id="rId6"/>
-    <hyperlink ref="G13" r:id="rId7"/>
-    <hyperlink ref="G4" r:id="rId8"/>
-    <hyperlink ref="G7" r:id="rId9"/>
-    <hyperlink ref="G9" r:id="rId10"/>
-    <hyperlink ref="G14" r:id="rId11"/>
-    <hyperlink ref="D6" r:id="rId12" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E6" r:id="rId13" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="G6" r:id="rId14" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="H6" r:id="rId15"/>
-    <hyperlink ref="D10" r:id="rId16" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="E10" r:id="rId18" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
+    <hyperlink ref="H10" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G6" r:id="rId7"/>
+    <hyperlink ref="H6" r:id="rId8"/>
+    <hyperlink ref="G12" r:id="rId9"/>
+    <hyperlink ref="G3" r:id="rId10"/>
+    <hyperlink ref="G13" r:id="rId11"/>
+    <hyperlink ref="G4" r:id="rId12"/>
+    <hyperlink ref="G7" r:id="rId13"/>
+    <hyperlink ref="G9" r:id="rId14"/>
+    <hyperlink ref="G14" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/tools_BOM.xlsx
+++ b/Documentation/tools_BOM.xlsx
@@ -641,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1191,10 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6">
+        <f>SUM(Table3[Quantity])</f>
+        <v>14</v>
+      </c>
       <c r="K21" s="7">
         <f>SUM(Table3[Total])</f>
         <v>94.68</v>

--- a/Documentation/tools_BOM.xlsx
+++ b/Documentation/tools_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>Column10</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>PRT-08023 </t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8023</t>
   </si>
 </sst>
 </file>
@@ -641,7 +650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,20 +1119,35 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I15" s="5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1193,11 +1217,11 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6">
         <f>SUM(Table3[Quantity])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7">
         <f>SUM(Table3[Total])</f>
-        <v>94.68</v>
+        <v>97.18</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1381,11 +1405,13 @@
     <hyperlink ref="D10" r:id="rId16" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
     <hyperlink ref="G10" r:id="rId17"/>
     <hyperlink ref="E10" r:id="rId18" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
+    <hyperlink ref="H9" r:id="rId19"/>
+    <hyperlink ref="G15" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/tools_BOM.xlsx
+++ b/Documentation/tools_BOM.xlsx
@@ -650,7 +650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,11 +1407,12 @@
     <hyperlink ref="E10" r:id="rId18" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
     <hyperlink ref="H9" r:id="rId19"/>
     <hyperlink ref="G15" r:id="rId20"/>
+    <hyperlink ref="H8" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
